--- a/results.xlsx
+++ b/results.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paramgupta/BigMM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paramgupta/Spot Fake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E2B0C2-EDE7-CD42-84D0-12755FF32C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906C0807-D105-6A4B-8761-132A50F8D4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{E78E31EF-BDCD-CC40-A45D-8E3F502B63C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="27">
   <si>
     <t>TfidfVectorizer+Linear SVC</t>
   </si>
@@ -109,6 +103,9 @@
   </si>
   <si>
     <t>Using titles</t>
+  </si>
+  <si>
+    <t>Universal Sentence Encoder(USE) + Dense</t>
   </si>
 </sst>
 </file>
@@ -481,7 +478,7 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U143" sqref="U143:U150"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1849,7 +1846,7 @@
     </row>
     <row r="52" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>12</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paramgupta/Spot Fake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906C0807-D105-6A4B-8761-132A50F8D4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED5D2C6-61CC-3242-8892-1191094D7675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{E78E31EF-BDCD-CC40-A45D-8E3F502B63C1}"/>
   </bookViews>
@@ -96,16 +96,16 @@
     <t>Bert Fine-Tune</t>
   </si>
   <si>
-    <t>Regular Data</t>
+    <t>Universal Sentence Encoder(USE) + Dense</t>
   </si>
   <si>
-    <t>Word Summary 120 words</t>
+    <t>Using Regular Aricle Body</t>
   </si>
   <si>
-    <t>Using titles</t>
+    <t>Using Generated Word Summary of Article Body(120 words)</t>
   </si>
   <si>
-    <t>Universal Sentence Encoder(USE) + Dense</t>
+    <t>Using Article Titles</t>
   </si>
 </sst>
 </file>
@@ -478,25 +478,26 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="26" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="46" customHeight="1" x14ac:dyDescent="0.3">
@@ -1846,7 +1847,7 @@
     </row>
     <row r="52" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>12</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paramgupta/Spot Fake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED5D2C6-61CC-3242-8892-1191094D7675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C520A224-14AD-9242-9592-15B39089B08B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{E78E31EF-BDCD-CC40-A45D-8E3F502B63C1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="28">
   <si>
     <t>TfidfVectorizer+Linear SVC</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Using Article Titles</t>
+  </si>
+  <si>
+    <t>TfidfVectorizer+Linear SVC+Source Confidence</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4C8E7E-1FB2-1F42-B9F5-58EFD75B32DF}">
-  <dimension ref="A1:S160"/>
+  <dimension ref="A1:S170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,25 +505,13 @@
     </row>
     <row r="2" spans="1:19" ht="46" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -535,84 +526,30 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="C5">
-        <v>0.56999999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="D5">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
         <v>1261</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.75</v>
-      </c>
-      <c r="J5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K5">
-        <v>0.63</v>
-      </c>
-      <c r="L5">
-        <v>1261</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0.69</v>
-      </c>
-      <c r="Q5">
-        <v>0.59</v>
-      </c>
-      <c r="R5">
-        <v>0.64</v>
-      </c>
-      <c r="S5">
-        <v>1261</v>
-      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="C6">
         <v>0.96</v>
@@ -621,36 +558,6 @@
         <v>0.92</v>
       </c>
       <c r="E6">
-        <v>3971</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0.87</v>
-      </c>
-      <c r="J6">
-        <v>0.94</v>
-      </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>3971</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0.88</v>
-      </c>
-      <c r="Q6">
-        <v>0.92</v>
-      </c>
-      <c r="R6">
-        <v>0.9</v>
-      </c>
-      <c r="S6">
         <v>3971</v>
       </c>
     </row>
@@ -659,27 +566,9 @@
         <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E8">
-        <v>5232</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="L8">
-        <v>5232</v>
-      </c>
-      <c r="O8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="S8">
         <v>5232</v>
       </c>
     </row>
@@ -691,42 +580,12 @@
         <v>0.85</v>
       </c>
       <c r="C9">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="E9">
-        <v>5232</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>0.81</v>
-      </c>
-      <c r="J9">
-        <v>0.74</v>
-      </c>
-      <c r="K9">
-        <v>0.77</v>
-      </c>
-      <c r="L9">
-        <v>5232</v>
-      </c>
-      <c r="O9" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9">
-        <v>0.78</v>
-      </c>
-      <c r="Q9">
-        <v>0.75</v>
-      </c>
-      <c r="R9">
-        <v>0.77</v>
-      </c>
-      <c r="S9">
         <v>5232</v>
       </c>
     </row>
@@ -738,58 +597,38 @@
         <v>0.87</v>
       </c>
       <c r="C10">
+        <v>0.88</v>
+      </c>
+      <c r="D10">
         <v>0.87</v>
       </c>
-      <c r="D10">
-        <v>0.86</v>
-      </c>
       <c r="E10">
-        <v>5232</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>0.84</v>
-      </c>
-      <c r="J10">
-        <v>0.85</v>
-      </c>
-      <c r="K10">
-        <v>0.84</v>
-      </c>
-      <c r="L10">
-        <v>5232</v>
-      </c>
-      <c r="O10" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <v>0.83</v>
-      </c>
-      <c r="Q10">
-        <v>0.84</v>
-      </c>
-      <c r="R10">
-        <v>0.83</v>
-      </c>
-      <c r="S10">
         <v>5232</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:19" ht="37" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>5</v>
@@ -833,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="C15">
-        <v>0.15</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D15">
-        <v>0.26</v>
+        <v>0.68</v>
       </c>
       <c r="E15">
         <v>1261</v>
@@ -848,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="J15">
-        <v>0.34</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K15">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="L15">
         <v>1261</v>
@@ -863,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.77</v>
+        <v>0.69</v>
       </c>
       <c r="Q15">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="R15">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="S15">
         <v>1261</v>
@@ -880,13 +719,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D16">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="E16">
         <v>3971</v>
@@ -895,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="J16">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
       <c r="K16">
         <v>0.9</v>
@@ -910,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="Q16">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="R16">
         <v>0.9</v>
@@ -927,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="E18">
         <v>5232</v>
@@ -936,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="2">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="L18">
         <v>5232</v>
@@ -956,13 +795,13 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="C19">
-        <v>0.56999999999999995</v>
+        <v>0.77</v>
       </c>
       <c r="D19">
-        <v>0.56999999999999995</v>
+        <v>0.8</v>
       </c>
       <c r="E19">
         <v>5232</v>
@@ -971,13 +810,13 @@
         <v>3</v>
       </c>
       <c r="I19">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
       <c r="J19">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="K19">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="L19">
         <v>5232</v>
@@ -986,13 +825,13 @@
         <v>3</v>
       </c>
       <c r="P19">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
       <c r="Q19">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="S19">
         <v>5232</v>
@@ -1003,13 +842,13 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="C20">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="D20">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="E20">
         <v>5232</v>
@@ -1021,10 +860,10 @@
         <v>0.84</v>
       </c>
       <c r="J20">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="K20">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="L20">
         <v>5232</v>
@@ -1047,13 +886,13 @@
     </row>
     <row r="22" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1100,13 +939,13 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>0.78</v>
+        <v>0.96</v>
       </c>
       <c r="C25">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="D25">
-        <v>0.68</v>
+        <v>0.26</v>
       </c>
       <c r="E25">
         <v>1261</v>
@@ -1115,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="J25">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
       <c r="K25">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
         <v>1261</v>
@@ -1130,13 +969,13 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="Q25">
-        <v>0.56000000000000005</v>
+        <v>0.48</v>
       </c>
       <c r="R25">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="S25">
         <v>1261</v>
@@ -1147,13 +986,13 @@
         <v>1</v>
       </c>
       <c r="B26">
+        <v>0.79</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>0.88</v>
-      </c>
-      <c r="C26">
-        <v>0.95</v>
-      </c>
-      <c r="D26">
-        <v>0.91</v>
       </c>
       <c r="E26">
         <v>3971</v>
@@ -1162,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="J26">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="K26">
         <v>0.9</v>
@@ -1177,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="Q26">
+        <v>0.95</v>
+      </c>
+      <c r="R26">
         <v>0.9</v>
-      </c>
-      <c r="R26">
-        <v>0.88</v>
       </c>
       <c r="S26">
         <v>3971</v>
@@ -1194,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="2">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="E28">
         <v>5232</v>
@@ -1212,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="R28" s="2">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="S28">
         <v>5232</v>
@@ -1223,13 +1062,13 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="C29">
-        <v>0.77</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D29">
-        <v>0.8</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E29">
         <v>5232</v>
@@ -1238,13 +1077,13 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="J29">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="L29">
         <v>5232</v>
@@ -1253,13 +1092,13 @@
         <v>3</v>
       </c>
       <c r="P29">
+        <v>0.81</v>
+      </c>
+      <c r="Q29">
+        <v>0.72</v>
+      </c>
+      <c r="R29">
         <v>0.75</v>
-      </c>
-      <c r="Q29">
-        <v>0.73</v>
-      </c>
-      <c r="R29">
-        <v>0.74</v>
       </c>
       <c r="S29">
         <v>5232</v>
@@ -1270,13 +1109,13 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="C30">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="D30">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="E30">
         <v>5232</v>
@@ -1285,13 +1124,13 @@
         <v>4</v>
       </c>
       <c r="I30">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="J30">
         <v>0.83</v>
       </c>
       <c r="K30">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="L30">
         <v>5232</v>
@@ -1300,13 +1139,13 @@
         <v>4</v>
       </c>
       <c r="P30">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="Q30">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="R30">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="S30">
         <v>5232</v>
@@ -1314,13 +1153,13 @@
     </row>
     <row r="32" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1367,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>0.69</v>
+        <v>0.78</v>
       </c>
       <c r="C35">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="D35">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="E35">
         <v>1261</v>
@@ -1382,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="J35">
         <v>0.53</v>
       </c>
       <c r="K35">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="L35">
         <v>1261</v>
@@ -1400,10 +1239,10 @@
         <v>0.64</v>
       </c>
       <c r="Q35">
-        <v>0.57999999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R35">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="S35">
         <v>1261</v>
@@ -1414,13 +1253,13 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C36">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="D36">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E36">
         <v>3971</v>
@@ -1432,10 +1271,10 @@
         <v>0.86</v>
       </c>
       <c r="J36">
+        <v>0.93</v>
+      </c>
+      <c r="K36">
         <v>0.9</v>
-      </c>
-      <c r="K36">
-        <v>0.88</v>
       </c>
       <c r="L36">
         <v>3971</v>
@@ -1444,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="Q36">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="R36">
         <v>0.88</v>
@@ -1461,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="2">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="E38">
         <v>5232</v>
@@ -1470,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="K38" s="2">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="L38">
         <v>5232</v>
@@ -1490,13 +1329,13 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="C39">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="D39">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="E39">
         <v>5232</v>
@@ -1505,13 +1344,13 @@
         <v>3</v>
       </c>
       <c r="I39">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="J39">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="K39">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="L39">
         <v>5232</v>
@@ -1523,10 +1362,10 @@
         <v>0.75</v>
       </c>
       <c r="Q39">
+        <v>0.73</v>
+      </c>
+      <c r="R39">
         <v>0.74</v>
-      </c>
-      <c r="R39">
-        <v>0.75</v>
       </c>
       <c r="S39">
         <v>5232</v>
@@ -1537,13 +1376,13 @@
         <v>4</v>
       </c>
       <c r="B40">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="C40">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="D40">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="E40">
         <v>5232</v>
@@ -1552,13 +1391,13 @@
         <v>4</v>
       </c>
       <c r="I40">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="J40">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="K40">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="L40">
         <v>5232</v>
@@ -1573,7 +1412,7 @@
         <v>0.82</v>
       </c>
       <c r="R40">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="S40">
         <v>5232</v>
@@ -1581,13 +1420,13 @@
     </row>
     <row r="42" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
@@ -1633,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="C45">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D45">
         <v>0.63</v>
-      </c>
-      <c r="D45">
-        <v>0.67</v>
       </c>
       <c r="E45">
         <v>1261</v>
@@ -1648,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="I45">
+        <v>0.63</v>
+      </c>
+      <c r="J45">
+        <v>0.53</v>
+      </c>
+      <c r="K45">
         <v>0.67</v>
-      </c>
-      <c r="J45">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K45">
-        <v>0.61</v>
       </c>
       <c r="L45">
         <v>1261</v>
@@ -1663,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="Q45">
-        <v>0.62</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R45">
         <v>0.61</v>
@@ -1680,13 +1519,13 @@
         <v>1</v>
       </c>
       <c r="B46">
+        <v>0.87</v>
+      </c>
+      <c r="C46">
+        <v>0.92</v>
+      </c>
+      <c r="D46">
         <v>0.89</v>
-      </c>
-      <c r="C46">
-        <v>0.93</v>
-      </c>
-      <c r="D46">
-        <v>0.91</v>
       </c>
       <c r="E46">
         <v>3971</v>
@@ -1695,13 +1534,13 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J46">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="K46">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="L46">
         <v>3971</v>
@@ -1710,10 +1549,10 @@
         <v>1</v>
       </c>
       <c r="P46">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="Q46">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="R46">
         <v>0.88</v>
@@ -1727,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="2">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E48">
         <v>5232</v>
@@ -1736,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="K48" s="2">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="L48">
         <v>5232</v>
@@ -1745,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="R48" s="2">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="S48">
         <v>5232</v>
@@ -1756,13 +1595,13 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
       <c r="C49">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="D49">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="E49">
         <v>5232</v>
@@ -1771,13 +1610,13 @@
         <v>3</v>
       </c>
       <c r="I49">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="J49">
+        <v>0.71</v>
+      </c>
+      <c r="K49">
         <v>0.73</v>
-      </c>
-      <c r="K49">
-        <v>0.75</v>
       </c>
       <c r="L49">
         <v>5232</v>
@@ -1786,13 +1625,13 @@
         <v>3</v>
       </c>
       <c r="P49">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="Q49">
         <v>0.74</v>
       </c>
       <c r="R49">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="S49">
         <v>5232</v>
@@ -1803,13 +1642,13 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="C50">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D50">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E50">
         <v>5232</v>
@@ -1818,13 +1657,13 @@
         <v>4</v>
       </c>
       <c r="I50">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="J50">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="K50">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="L50">
         <v>5232</v>
@@ -1836,10 +1675,10 @@
         <v>0.81</v>
       </c>
       <c r="Q50">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="R50">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="S50">
         <v>5232</v>
@@ -1847,13 +1686,13 @@
     </row>
     <row r="52" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
@@ -1899,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="C55">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="D55">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="E55">
         <v>1261</v>
@@ -1914,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="J55">
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K55">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="L55">
         <v>1261</v>
@@ -1929,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="Q55">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="R55">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="S55">
         <v>1261</v>
@@ -1946,13 +1785,13 @@
         <v>1</v>
       </c>
       <c r="B56">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="C56">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="D56">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="E56">
         <v>3971</v>
@@ -1961,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J56">
         <v>0.91</v>
@@ -1976,13 +1815,13 @@
         <v>1</v>
       </c>
       <c r="P56">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="Q56">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="R56">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="S56">
         <v>3971</v>
@@ -2011,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="R58" s="2">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="S58">
         <v>5232</v>
@@ -2025,10 +1864,10 @@
         <v>0.81</v>
       </c>
       <c r="C59">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="D59">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="E59">
         <v>5232</v>
@@ -2037,13 +1876,13 @@
         <v>3</v>
       </c>
       <c r="I59">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="J59">
+        <v>0.73</v>
+      </c>
+      <c r="K59">
         <v>0.75</v>
-      </c>
-      <c r="K59">
-        <v>0.76</v>
       </c>
       <c r="L59">
         <v>5232</v>
@@ -2052,13 +1891,13 @@
         <v>3</v>
       </c>
       <c r="P59">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="Q59">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="R59">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="S59">
         <v>5232</v>
@@ -2069,13 +1908,13 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="C60">
         <v>0.85</v>
       </c>
       <c r="D60">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E60">
         <v>5232</v>
@@ -2084,13 +1923,13 @@
         <v>4</v>
       </c>
       <c r="I60">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J60">
         <v>0.83</v>
       </c>
       <c r="K60">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="L60">
         <v>5232</v>
@@ -2099,13 +1938,13 @@
         <v>4</v>
       </c>
       <c r="P60">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="Q60">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="R60">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="S60">
         <v>5232</v>
@@ -2113,13 +1952,13 @@
     </row>
     <row r="62" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
@@ -2165,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="C65">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="D65">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="E65">
         <v>1261</v>
@@ -2180,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="J65">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="K65">
-        <v>0.56999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="L65">
         <v>1261</v>
@@ -2195,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="Q65">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="R65">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="S65">
         <v>1261</v>
@@ -2212,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="C66">
         <v>0.95</v>
@@ -2227,10 +2066,10 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="J66">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="K66">
         <v>0.89</v>
@@ -2242,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="P66">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="Q66">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="R66">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="S66">
         <v>3971</v>
@@ -2288,13 +2127,13 @@
         <v>3</v>
       </c>
       <c r="B69">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="C69">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="D69">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="E69">
         <v>5232</v>
@@ -2306,10 +2145,10 @@
         <v>0.78</v>
       </c>
       <c r="J69">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="K69">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="L69">
         <v>5232</v>
@@ -2318,13 +2157,13 @@
         <v>3</v>
       </c>
       <c r="P69">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="Q69">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="R69">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="S69">
         <v>5232</v>
@@ -2341,7 +2180,7 @@
         <v>0.85</v>
       </c>
       <c r="D70">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="E70">
         <v>5232</v>
@@ -2350,13 +2189,13 @@
         <v>4</v>
       </c>
       <c r="I70">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="J70">
         <v>0.83</v>
       </c>
       <c r="K70">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="L70">
         <v>5232</v>
@@ -2365,13 +2204,13 @@
         <v>4</v>
       </c>
       <c r="P70">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="Q70">
         <v>0.83</v>
       </c>
       <c r="R70">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="S70">
         <v>5232</v>
@@ -2379,13 +2218,13 @@
     </row>
     <row r="72" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -2431,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="C75">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D75">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="E75">
         <v>1261</v>
@@ -2446,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="J75">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="K75">
-        <v>0.53</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L75">
         <v>1261</v>
@@ -2461,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="P75">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="Q75">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="R75">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="S75">
         <v>1261</v>
@@ -2481,7 +2320,7 @@
         <v>0.86</v>
       </c>
       <c r="C76">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="D76">
         <v>0.9</v>
@@ -2493,13 +2332,13 @@
         <v>1</v>
       </c>
       <c r="I76">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J76">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="K76">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="L76">
         <v>3971</v>
@@ -2508,13 +2347,13 @@
         <v>1</v>
       </c>
       <c r="P76">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="Q76">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="R76">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="S76">
         <v>3971</v>
@@ -2525,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="2">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="E78">
         <v>5232</v>
@@ -2534,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="K78" s="2">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="L78">
         <v>5232</v>
@@ -2543,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="R78" s="2">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="S78">
         <v>5232</v>
@@ -2554,13 +2393,13 @@
         <v>3</v>
       </c>
       <c r="B79">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="C79">
         <v>0.73</v>
       </c>
       <c r="D79">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="E79">
         <v>5232</v>
@@ -2569,13 +2408,13 @@
         <v>3</v>
       </c>
       <c r="I79">
+        <v>0.78</v>
+      </c>
+      <c r="J79">
+        <v>0.71</v>
+      </c>
+      <c r="K79">
         <v>0.73</v>
-      </c>
-      <c r="J79">
-        <v>0.68</v>
-      </c>
-      <c r="K79">
-        <v>0.7</v>
       </c>
       <c r="L79">
         <v>5232</v>
@@ -2584,13 +2423,13 @@
         <v>3</v>
       </c>
       <c r="P79">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="Q79">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="R79">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="S79">
         <v>5232</v>
@@ -2601,13 +2440,13 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="C80">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="D80">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E80">
         <v>5232</v>
@@ -2616,13 +2455,13 @@
         <v>4</v>
       </c>
       <c r="I80">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="J80">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="K80">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="L80">
         <v>5232</v>
@@ -2631,13 +2470,13 @@
         <v>4</v>
       </c>
       <c r="P80">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="Q80">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="R80">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="S80">
         <v>5232</v>
@@ -2645,13 +2484,13 @@
     </row>
     <row r="82" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
@@ -2697,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="C85">
         <v>0.52</v>
       </c>
       <c r="D85">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="E85">
         <v>1261</v>
@@ -2712,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>0.57999999999999996</v>
+        <v>0.62</v>
       </c>
       <c r="J85">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="K85">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="L85">
         <v>1261</v>
@@ -2727,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>0.56000000000000005</v>
+        <v>0.59</v>
       </c>
       <c r="Q85">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="R85">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="S85">
         <v>1261</v>
@@ -2747,10 +2586,10 @@
         <v>0.86</v>
       </c>
       <c r="C86">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="D86">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="E86">
         <v>3971</v>
@@ -2762,10 +2601,10 @@
         <v>0.84</v>
       </c>
       <c r="J86">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="K86">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="L86">
         <v>3971</v>
@@ -2774,13 +2613,13 @@
         <v>1</v>
       </c>
       <c r="P86">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="Q86">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="R86">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="S86">
         <v>3971</v>
@@ -2791,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="2">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E88">
         <v>5232</v>
@@ -2800,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="K88" s="2">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="L88">
         <v>5232</v>
@@ -2809,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="R88" s="2">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="S88">
         <v>5232</v>
@@ -2820,13 +2659,13 @@
         <v>3</v>
       </c>
       <c r="B89">
+        <v>0.79</v>
+      </c>
+      <c r="C89">
+        <v>0.73</v>
+      </c>
+      <c r="D89">
         <v>0.75</v>
-      </c>
-      <c r="C89">
-        <v>0.72</v>
-      </c>
-      <c r="D89">
-        <v>0.73</v>
       </c>
       <c r="E89">
         <v>5232</v>
@@ -2835,13 +2674,13 @@
         <v>3</v>
       </c>
       <c r="I89">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="J89">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="K89">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="L89">
         <v>5232</v>
@@ -2850,13 +2689,13 @@
         <v>3</v>
       </c>
       <c r="P89">
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
       <c r="Q89">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="R89">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="S89">
         <v>5232</v>
@@ -2867,13 +2706,13 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="C90">
+        <v>0.83</v>
+      </c>
+      <c r="D90">
         <v>0.82</v>
-      </c>
-      <c r="D90">
-        <v>0.81</v>
       </c>
       <c r="E90">
         <v>5232</v>
@@ -2882,13 +2721,13 @@
         <v>4</v>
       </c>
       <c r="I90">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="J90">
+        <v>0.8</v>
+      </c>
+      <c r="K90">
         <v>0.79</v>
-      </c>
-      <c r="K90">
-        <v>0.78</v>
       </c>
       <c r="L90">
         <v>5232</v>
@@ -2897,13 +2736,13 @@
         <v>4</v>
       </c>
       <c r="P90">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="Q90">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="R90">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="S90">
         <v>5232</v>
@@ -2911,13 +2750,13 @@
     </row>
     <row r="92" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
@@ -2963,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="C95">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="D95">
-        <v>0.54</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E95">
         <v>1261</v>
@@ -2978,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0.68</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J95">
+        <v>0.44</v>
+      </c>
+      <c r="K95">
         <v>0.5</v>
-      </c>
-      <c r="K95">
-        <v>0.57999999999999996</v>
       </c>
       <c r="L95">
         <v>1261</v>
@@ -2993,13 +2832,13 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>0.73</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Q95">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="R95">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="S95">
         <v>1261</v>
@@ -3010,13 +2849,13 @@
         <v>1</v>
       </c>
       <c r="B96">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="C96">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="D96">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E96">
         <v>3971</v>
@@ -3025,13 +2864,13 @@
         <v>1</v>
       </c>
       <c r="I96">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J96">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="K96">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="L96">
         <v>3971</v>
@@ -3040,13 +2879,13 @@
         <v>1</v>
       </c>
       <c r="P96">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="Q96">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="R96">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="S96">
         <v>3971</v>
@@ -3057,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="D98" s="2">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E98">
         <v>5232</v>
@@ -3066,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="K98" s="2">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="L98">
         <v>5232</v>
@@ -3075,7 +2914,7 @@
         <v>2</v>
       </c>
       <c r="R98" s="2">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="S98">
         <v>5232</v>
@@ -3086,13 +2925,13 @@
         <v>3</v>
       </c>
       <c r="B99">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="C99">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
       <c r="D99">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="E99">
         <v>5232</v>
@@ -3101,13 +2940,13 @@
         <v>3</v>
       </c>
       <c r="I99">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="J99">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="K99">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="L99">
         <v>5232</v>
@@ -3116,13 +2955,13 @@
         <v>3</v>
       </c>
       <c r="P99">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
       <c r="Q99">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="R99">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="S99">
         <v>5232</v>
@@ -3133,10 +2972,10 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="C100">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="D100">
         <v>0.81</v>
@@ -3148,13 +2987,13 @@
         <v>4</v>
       </c>
       <c r="I100">
-        <v>0.81</v>
+        <v>0.77</v>
       </c>
       <c r="J100">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="K100">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
       <c r="L100">
         <v>5232</v>
@@ -3163,13 +3002,13 @@
         <v>4</v>
       </c>
       <c r="P100">
-        <v>0.81</v>
+        <v>0.76</v>
       </c>
       <c r="Q100">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="R100">
-        <v>0.81</v>
+        <v>0.76</v>
       </c>
       <c r="S100">
         <v>5232</v>
@@ -3177,13 +3016,13 @@
     </row>
     <row r="102" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
@@ -3229,13 +3068,13 @@
         <v>0</v>
       </c>
       <c r="B105">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="C105">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="D105">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="E105">
         <v>1261</v>
@@ -3244,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="J105">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="K105">
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L105">
         <v>1261</v>
@@ -3259,13 +3098,13 @@
         <v>0</v>
       </c>
       <c r="P105">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="Q105">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="R105">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="S105">
         <v>1261</v>
@@ -3276,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="B106">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="C106">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="D106">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="E106">
         <v>3971</v>
@@ -3294,7 +3133,7 @@
         <v>0.85</v>
       </c>
       <c r="J106">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K106">
         <v>0.89</v>
@@ -3306,13 +3145,13 @@
         <v>1</v>
       </c>
       <c r="P106">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="Q106">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="R106">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="S106">
         <v>3971</v>
@@ -3323,7 +3162,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="2">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E108">
         <v>5232</v>
@@ -3341,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="R108" s="2">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="S108">
         <v>5232</v>
@@ -3352,10 +3191,10 @@
         <v>3</v>
       </c>
       <c r="B109">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="C109">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="D109">
         <v>0.72</v>
@@ -3367,13 +3206,13 @@
         <v>3</v>
       </c>
       <c r="I109">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="J109">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="K109">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="L109">
         <v>5232</v>
@@ -3382,13 +3221,13 @@
         <v>3</v>
       </c>
       <c r="P109">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="Q109">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="R109">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="S109">
         <v>5232</v>
@@ -3399,10 +3238,10 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="C110">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="D110">
         <v>0.81</v>
@@ -3429,13 +3268,13 @@
         <v>4</v>
       </c>
       <c r="P110">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="Q110">
+        <v>0.82</v>
+      </c>
+      <c r="R110">
         <v>0.81</v>
-      </c>
-      <c r="R110">
-        <v>0.8</v>
       </c>
       <c r="S110">
         <v>5232</v>
@@ -3443,13 +3282,13 @@
     </row>
     <row r="112" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
@@ -3495,13 +3334,13 @@
         <v>0</v>
       </c>
       <c r="B115">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="C115">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="D115">
-        <v>0.66</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E115">
         <v>1261</v>
@@ -3510,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="J115">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="K115">
-        <v>0.62</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L115">
         <v>1261</v>
@@ -3525,13 +3364,13 @@
         <v>0</v>
       </c>
       <c r="P115">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="Q115">
-        <v>0.69</v>
+        <v>0.48</v>
       </c>
       <c r="R115">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S115">
         <v>1261</v>
@@ -3542,13 +3381,13 @@
         <v>1</v>
       </c>
       <c r="B116">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="C116">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="D116">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="E116">
         <v>3971</v>
@@ -3557,10 +3396,10 @@
         <v>1</v>
       </c>
       <c r="I116">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="J116">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="K116">
         <v>0.89</v>
@@ -3572,10 +3411,10 @@
         <v>1</v>
       </c>
       <c r="P116">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="Q116">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="R116">
         <v>0.88</v>
@@ -3589,7 +3428,7 @@
         <v>2</v>
       </c>
       <c r="D118" s="2">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="E118">
         <v>5232</v>
@@ -3607,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="R118" s="2">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="S118">
         <v>5232</v>
@@ -3618,13 +3457,13 @@
         <v>3</v>
       </c>
       <c r="B119">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="C119">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="D119">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="E119">
         <v>5232</v>
@@ -3636,10 +3475,10 @@
         <v>0.76</v>
       </c>
       <c r="J119">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="K119">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="L119">
         <v>5232</v>
@@ -3648,13 +3487,13 @@
         <v>3</v>
       </c>
       <c r="P119">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="Q119">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="R119">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="S119">
         <v>5232</v>
@@ -3665,13 +3504,13 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
       <c r="C120">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="D120">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="E120">
         <v>5232</v>
@@ -3680,13 +3519,13 @@
         <v>4</v>
       </c>
       <c r="I120">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="J120">
         <v>0.82</v>
       </c>
       <c r="K120">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="L120">
         <v>5232</v>
@@ -3695,13 +3534,13 @@
         <v>4</v>
       </c>
       <c r="P120">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="Q120">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="R120">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="S120">
         <v>5232</v>
@@ -3709,13 +3548,13 @@
     </row>
     <row r="122" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
@@ -3761,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="B125">
-        <v>0.65</v>
+        <v>0.82</v>
       </c>
       <c r="C125">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="D125">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="E125">
         <v>1261</v>
@@ -3776,13 +3615,13 @@
         <v>0</v>
       </c>
       <c r="I125">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="J125">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="K125">
-        <v>0.57999999999999996</v>
+        <v>0.62</v>
       </c>
       <c r="L125">
         <v>1261</v>
@@ -3794,10 +3633,10 @@
         <v>0.62</v>
       </c>
       <c r="Q125">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
       <c r="R125">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="S125">
         <v>1261</v>
@@ -3808,13 +3647,13 @@
         <v>1</v>
       </c>
       <c r="B126">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C126">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="D126">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E126">
         <v>3971</v>
@@ -3823,13 +3662,13 @@
         <v>1</v>
       </c>
       <c r="I126">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="J126">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="K126">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="L126">
         <v>3971</v>
@@ -3838,10 +3677,10 @@
         <v>1</v>
       </c>
       <c r="P126">
+        <v>0.9</v>
+      </c>
+      <c r="Q126">
         <v>0.87</v>
-      </c>
-      <c r="Q126">
-        <v>0.88</v>
       </c>
       <c r="R126">
         <v>0.88</v>
@@ -3855,7 +3694,7 @@
         <v>2</v>
       </c>
       <c r="D128" s="2">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="E128">
         <v>5232</v>
@@ -3864,7 +3703,7 @@
         <v>2</v>
       </c>
       <c r="K128" s="2">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="L128">
         <v>5232</v>
@@ -3873,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="R128" s="2">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="S128">
         <v>5232</v>
@@ -3884,13 +3723,13 @@
         <v>3</v>
       </c>
       <c r="B129">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="C129">
         <v>0.75</v>
       </c>
       <c r="D129">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="E129">
         <v>5232</v>
@@ -3899,13 +3738,13 @@
         <v>3</v>
       </c>
       <c r="I129">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="J129">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="K129">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="L129">
         <v>5232</v>
@@ -3914,13 +3753,13 @@
         <v>3</v>
       </c>
       <c r="P129">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="Q129">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="R129">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="S129">
         <v>5232</v>
@@ -3931,13 +3770,13 @@
         <v>4</v>
       </c>
       <c r="B130">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="C130">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="D130">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="E130">
         <v>5232</v>
@@ -3946,13 +3785,13 @@
         <v>4</v>
       </c>
       <c r="I130">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="J130">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="K130">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="L130">
         <v>5232</v>
@@ -3961,13 +3800,13 @@
         <v>4</v>
       </c>
       <c r="P130">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="Q130">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="R130">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="S130">
         <v>5232</v>
@@ -3975,13 +3814,13 @@
     </row>
     <row r="132" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
@@ -4027,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
       <c r="C135">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="D135">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="E135">
         <v>1261</v>
@@ -4042,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="J135">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K135">
-        <v>0.63</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L135">
         <v>1261</v>
@@ -4057,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="P135">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="Q135">
         <v>0.59</v>
       </c>
       <c r="R135">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="S135">
         <v>1261</v>
@@ -4074,13 +3913,13 @@
         <v>1</v>
       </c>
       <c r="B136">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="C136">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="D136">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E136">
         <v>3971</v>
@@ -4089,13 +3928,13 @@
         <v>1</v>
       </c>
       <c r="I136">
+        <v>0.86</v>
+      </c>
+      <c r="J136">
         <v>0.88</v>
       </c>
-      <c r="J136">
-        <v>0.9</v>
-      </c>
       <c r="K136">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="L136">
         <v>3971</v>
@@ -4104,13 +3943,13 @@
         <v>1</v>
       </c>
       <c r="P136">
+        <v>0.87</v>
+      </c>
+      <c r="Q136">
         <v>0.88</v>
       </c>
-      <c r="Q136">
-        <v>0.91</v>
-      </c>
       <c r="R136">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="S136">
         <v>3971</v>
@@ -4121,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="2">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E138">
         <v>5232</v>
@@ -4130,7 +3969,7 @@
         <v>2</v>
       </c>
       <c r="K138" s="2">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="L138">
         <v>5232</v>
@@ -4139,7 +3978,7 @@
         <v>2</v>
       </c>
       <c r="R138" s="2">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="S138">
         <v>5232</v>
@@ -4150,13 +3989,13 @@
         <v>3</v>
       </c>
       <c r="B139">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="C139">
-        <v>0.69</v>
+        <v>0.75</v>
       </c>
       <c r="D139">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E139">
         <v>5232</v>
@@ -4165,13 +4004,13 @@
         <v>3</v>
       </c>
       <c r="I139">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="J139">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="K139">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="L139">
         <v>5232</v>
@@ -4180,13 +4019,13 @@
         <v>3</v>
       </c>
       <c r="P139">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="Q139">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="R139">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="S139">
         <v>5232</v>
@@ -4197,13 +4036,13 @@
         <v>4</v>
       </c>
       <c r="B140">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="C140">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="D140">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E140">
         <v>5232</v>
@@ -4212,13 +4051,13 @@
         <v>4</v>
       </c>
       <c r="I140">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="J140">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="K140">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="L140">
         <v>5232</v>
@@ -4227,13 +4066,13 @@
         <v>4</v>
       </c>
       <c r="P140">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="Q140">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="R140">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="S140">
         <v>5232</v>
@@ -4241,13 +4080,13 @@
     </row>
     <row r="142" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
@@ -4293,13 +4132,13 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="C145">
-        <v>0.56000000000000005</v>
+        <v>0.39</v>
       </c>
       <c r="D145">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="E145">
         <v>1261</v>
@@ -4308,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="J145">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="K145">
         <v>0.63</v>
@@ -4323,13 +4162,13 @@
         <v>0</v>
       </c>
       <c r="P145">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="Q145">
+        <v>0.59</v>
+      </c>
+      <c r="R145">
         <v>0.63</v>
-      </c>
-      <c r="R145">
-        <v>0.65</v>
       </c>
       <c r="S145">
         <v>1261</v>
@@ -4340,13 +4179,13 @@
         <v>1</v>
       </c>
       <c r="B146">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="C146">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="D146">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E146">
         <v>3971</v>
@@ -4358,7 +4197,7 @@
         <v>0.88</v>
       </c>
       <c r="J146">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="K146">
         <v>0.89</v>
@@ -4373,7 +4212,7 @@
         <v>0.88</v>
       </c>
       <c r="Q146">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="R146">
         <v>0.89</v>
@@ -4387,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="D148" s="2">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E148">
         <v>5232</v>
@@ -4416,13 +4255,13 @@
         <v>3</v>
       </c>
       <c r="B149">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="C149">
-        <v>0.75</v>
+        <v>0.69</v>
       </c>
       <c r="D149">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="E149">
         <v>5232</v>
@@ -4431,10 +4270,10 @@
         <v>3</v>
       </c>
       <c r="I149">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="J149">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="K149">
         <v>0.76</v>
@@ -4446,13 +4285,13 @@
         <v>3</v>
       </c>
       <c r="P149">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q149">
+        <v>0.75</v>
+      </c>
+      <c r="R149">
         <v>0.76</v>
-      </c>
-      <c r="R149">
-        <v>0.77</v>
       </c>
       <c r="S149">
         <v>5232</v>
@@ -4463,13 +4302,13 @@
         <v>4</v>
       </c>
       <c r="B150">
+        <v>0.85</v>
+      </c>
+      <c r="C150">
         <v>0.84</v>
       </c>
-      <c r="C150">
-        <v>0.85</v>
-      </c>
       <c r="D150">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="E150">
         <v>5232</v>
@@ -4484,7 +4323,7 @@
         <v>0.83</v>
       </c>
       <c r="K150">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="L150">
         <v>5232</v>
@@ -4507,13 +4346,13 @@
     </row>
     <row r="152" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.2">
@@ -4559,13 +4398,13 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="E155">
         <v>1261</v>
@@ -4574,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="L155">
         <v>1261</v>
@@ -4589,13 +4428,13 @@
         <v>0</v>
       </c>
       <c r="P155">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="R155">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="S155">
         <v>1261</v>
@@ -4606,13 +4445,13 @@
         <v>1</v>
       </c>
       <c r="B156">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D156">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="E156">
         <v>3971</v>
@@ -4621,13 +4460,13 @@
         <v>1</v>
       </c>
       <c r="I156">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="K156">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="L156">
         <v>3971</v>
@@ -4636,13 +4475,13 @@
         <v>1</v>
       </c>
       <c r="P156">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="Q156">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="R156">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="S156">
         <v>3971</v>
@@ -4653,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="2">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="E158">
         <v>5232</v>
@@ -4662,7 +4501,7 @@
         <v>2</v>
       </c>
       <c r="K158" s="2">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="L158">
         <v>5232</v>
@@ -4671,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="R158" s="2">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="S158">
         <v>5232</v>
@@ -4682,13 +4521,13 @@
         <v>3</v>
       </c>
       <c r="B159">
-        <v>0.38</v>
+        <v>0.82</v>
       </c>
       <c r="C159">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D159">
-        <v>0.43</v>
+        <v>0.78</v>
       </c>
       <c r="E159">
         <v>5232</v>
@@ -4697,13 +4536,13 @@
         <v>3</v>
       </c>
       <c r="I159">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="J159">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="K159">
-        <v>0.43</v>
+        <v>0.76</v>
       </c>
       <c r="L159">
         <v>5232</v>
@@ -4712,13 +4551,13 @@
         <v>3</v>
       </c>
       <c r="P159">
-        <v>0.38</v>
+        <v>0.77</v>
       </c>
       <c r="Q159">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="R159">
-        <v>0.43</v>
+        <v>0.77</v>
       </c>
       <c r="S159">
         <v>5232</v>
@@ -4729,13 +4568,13 @@
         <v>4</v>
       </c>
       <c r="B160">
-        <v>0.57999999999999996</v>
+        <v>0.84</v>
       </c>
       <c r="C160">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="D160">
-        <v>0.65</v>
+        <v>0.84</v>
       </c>
       <c r="E160">
         <v>5232</v>
@@ -4744,13 +4583,13 @@
         <v>4</v>
       </c>
       <c r="I160">
-        <v>0.57999999999999996</v>
+        <v>0.82</v>
       </c>
       <c r="J160">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="K160">
-        <v>0.65</v>
+        <v>0.82</v>
       </c>
       <c r="L160">
         <v>5232</v>
@@ -4759,15 +4598,281 @@
         <v>4</v>
       </c>
       <c r="P160">
+        <v>0.83</v>
+      </c>
+      <c r="Q160">
+        <v>0.83</v>
+      </c>
+      <c r="R160">
+        <v>0.83</v>
+      </c>
+      <c r="S160">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" t="s">
+        <v>8</v>
+      </c>
+      <c r="I164" t="s">
+        <v>5</v>
+      </c>
+      <c r="J164" t="s">
+        <v>6</v>
+      </c>
+      <c r="K164" t="s">
+        <v>7</v>
+      </c>
+      <c r="L164" t="s">
+        <v>8</v>
+      </c>
+      <c r="P164" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>6</v>
+      </c>
+      <c r="R164" t="s">
+        <v>7</v>
+      </c>
+      <c r="S164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>1261</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>1261</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>0.76</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>0.86</v>
+      </c>
+      <c r="E166">
+        <v>3971</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>0.76</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>0.86</v>
+      </c>
+      <c r="L166">
+        <v>3971</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166">
+        <v>0.76</v>
+      </c>
+      <c r="Q166">
+        <v>1</v>
+      </c>
+      <c r="R166">
+        <v>0.86</v>
+      </c>
+      <c r="S166">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E168">
+        <v>5232</v>
+      </c>
+      <c r="H168" t="s">
+        <v>2</v>
+      </c>
+      <c r="K168" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="L168">
+        <v>5232</v>
+      </c>
+      <c r="O168" t="s">
+        <v>2</v>
+      </c>
+      <c r="R168" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="S168">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169">
+        <v>0.38</v>
+      </c>
+      <c r="C169">
+        <v>0.5</v>
+      </c>
+      <c r="D169">
+        <v>0.43</v>
+      </c>
+      <c r="E169">
+        <v>5232</v>
+      </c>
+      <c r="H169" t="s">
+        <v>3</v>
+      </c>
+      <c r="I169">
+        <v>0.38</v>
+      </c>
+      <c r="J169">
+        <v>0.5</v>
+      </c>
+      <c r="K169">
+        <v>0.43</v>
+      </c>
+      <c r="L169">
+        <v>5232</v>
+      </c>
+      <c r="O169" t="s">
+        <v>3</v>
+      </c>
+      <c r="P169">
+        <v>0.38</v>
+      </c>
+      <c r="Q169">
+        <v>0.5</v>
+      </c>
+      <c r="R169">
+        <v>0.43</v>
+      </c>
+      <c r="S169">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q160">
+      <c r="C170">
         <v>0.76</v>
       </c>
-      <c r="R160">
+      <c r="D170">
         <v>0.65</v>
       </c>
-      <c r="S160">
+      <c r="E170">
+        <v>5232</v>
+      </c>
+      <c r="H170" t="s">
+        <v>4</v>
+      </c>
+      <c r="I170">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J170">
+        <v>0.76</v>
+      </c>
+      <c r="K170">
+        <v>0.65</v>
+      </c>
+      <c r="L170">
+        <v>5232</v>
+      </c>
+      <c r="O170" t="s">
+        <v>4</v>
+      </c>
+      <c r="P170">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q170">
+        <v>0.76</v>
+      </c>
+      <c r="R170">
+        <v>0.65</v>
+      </c>
+      <c r="S170">
         <v>5232</v>
       </c>
     </row>
